--- a/src/test/resources/testdata/neworder.xlsx
+++ b/src/test/resources/testdata/neworder.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
